--- a/dpto politico.xlsx
+++ b/dpto politico.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-08\Desktop\proyecto observatorio\elecciones2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc-11\Desktop\CAPUA PROYECTOS\PYTHON\elecciones 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB229D-0BF7-4A7F-B1B2-70B6150F6469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20000" windowHeight="9053"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,23 +577,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5859375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.64453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.52734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -616,14 +618,11 @@
         <v>257014</v>
       </c>
       <c r="D2" s="13">
-        <f>VALUE(F2)*100</f>
+        <f>VALUE(Hoja2!B2)*100</f>
         <v>78</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -634,14 +633,11 @@
         <v>133361</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D29" si="0">VALUE(F3)*100</f>
+        <f>VALUE(Hoja2!B3)*100</f>
         <v>70.789999999999992</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.70789999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -652,14 +648,11 @@
         <v>51596</v>
       </c>
       <c r="D4" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B4)*100</f>
         <v>71.22</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.71220000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -670,14 +663,11 @@
         <v>41428</v>
       </c>
       <c r="D5" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B5)*100</f>
         <v>68.600000000000009</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -688,14 +678,11 @@
         <v>36812</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B6)*100</f>
         <v>68.92</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.68920000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -706,14 +693,11 @@
         <v>32102</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B7)*100</f>
         <v>67.010000000000005</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.67010000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -724,14 +708,11 @@
         <v>29638</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B8)*100</f>
         <v>63.32</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.63319999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -742,14 +723,11 @@
         <v>26149</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B9)*100</f>
         <v>61.339999999999996</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.61339999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -760,14 +738,11 @@
         <v>19676</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B10)*100</f>
         <v>67.190000000000012</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.67190000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -778,14 +753,11 @@
         <v>19211</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B11)*100</f>
         <v>66.97</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.66969999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -796,14 +768,11 @@
         <v>18864</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B12)*100</f>
         <v>63.39</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.63390000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -814,14 +783,11 @@
         <v>15365</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B13)*100</f>
         <v>63.190000000000005</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.63190000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -832,14 +798,11 @@
         <v>14531</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B14)*100</f>
         <v>62.79</v>
       </c>
-      <c r="F14" s="5">
-        <v>0.62790000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -850,14 +813,11 @@
         <v>14423</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B15)*100</f>
         <v>60.36</v>
       </c>
-      <c r="F15" s="5">
-        <v>0.60360000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -868,14 +828,11 @@
         <v>13251</v>
       </c>
       <c r="D16" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B16)*100</f>
         <v>62.739999999999995</v>
       </c>
-      <c r="F16" s="5">
-        <v>0.62739999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -886,14 +843,11 @@
         <v>12254</v>
       </c>
       <c r="D17" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B17)*100</f>
         <v>67.25</v>
       </c>
-      <c r="F17" s="5">
-        <v>0.67249999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -904,14 +858,11 @@
         <v>10730</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B18)*100</f>
         <v>68.33</v>
       </c>
-      <c r="F18" s="5">
-        <v>0.68330000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -922,14 +873,11 @@
         <v>9754</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B19)*100</f>
         <v>64.649999999999991</v>
       </c>
-      <c r="F19" s="5">
-        <v>0.64649999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -940,14 +888,11 @@
         <v>8641</v>
       </c>
       <c r="D20" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B20)*100</f>
         <v>61.56</v>
       </c>
-      <c r="F20" s="5">
-        <v>0.61560000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -958,14 +903,11 @@
         <v>8182</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B21)*100</f>
         <v>70.88</v>
       </c>
-      <c r="F21" s="5">
-        <v>0.70879999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -976,14 +918,11 @@
         <v>8000</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B22)*100</f>
         <v>63.31</v>
       </c>
-      <c r="F22" s="5">
-        <v>0.6331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -994,14 +933,11 @@
         <v>7918</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B23)*100</f>
         <v>69.81</v>
       </c>
-      <c r="F23" s="5">
-        <v>0.69810000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1012,14 +948,11 @@
         <v>7565</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B24)*100</f>
         <v>63.839999999999996</v>
       </c>
-      <c r="F24" s="5">
-        <v>0.63839999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1030,14 +963,11 @@
         <v>7456</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B25)*100</f>
         <v>63.49</v>
       </c>
-      <c r="F25" s="5">
-        <v>0.63490000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1048,14 +978,11 @@
         <v>3780</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B26)*100</f>
         <v>65.78</v>
       </c>
-      <c r="F26" s="5">
-        <v>0.65780000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1066,14 +993,11 @@
         <v>3329</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B27)*100</f>
         <v>64.88000000000001</v>
       </c>
-      <c r="F27" s="5">
-        <v>0.64880000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="22.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1084,14 +1008,11 @@
         <v>1050</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B28)*100</f>
         <v>49.28</v>
       </c>
-      <c r="F28" s="5">
-        <v>0.49280000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="24.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>31</v>
@@ -1100,15 +1021,167 @@
         <v>812080</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="0"/>
+        <f>VALUE(Hoja2!B29)*100</f>
         <v>68.83</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0.68830000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31B8625-3D91-47E1-840D-82AB135C3DE2}">
+  <dimension ref="B2:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>0.70789999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>0.71220000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>0.68920000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>0.67010000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>0.63319999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>0.61339999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>0.67190000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>0.66969999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>0.63390000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>0.63190000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>0.62790000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>0.60360000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>0.62739999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>0.68330000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>0.64649999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>0.61560000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>0.70879999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>0.6331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>0.69810000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>0.63839999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>0.63490000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>0.65780000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>0.64880000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>0.49280000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>0.68830000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dpto politico.xlsx
+++ b/dpto politico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc-11\Desktop\CAPUA PROYECTOS\PYTHON\elecciones 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB229D-0BF7-4A7F-B1B2-70B6150F6469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01DDB14-CEF3-4514-96DF-CB2FBD8A156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 ELECTORES</t>
   </si>
   <si>
-    <t>MOSTRAR</t>
-  </si>
-  <si>
     <t>CAPITAL</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
   </si>
 </sst>
 </file>
@@ -580,16 +580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -612,14 +612,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>257014</v>
       </c>
       <c r="D2" s="13">
         <f>VALUE(Hoja2!B2)*100</f>
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -627,14 +627,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>133361</v>
       </c>
       <c r="D3" s="13">
         <f>VALUE(Hoja2!B3)*100</f>
-        <v>70.789999999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -642,14 +642,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>51596</v>
       </c>
       <c r="D4" s="13">
         <f>VALUE(Hoja2!B4)*100</f>
-        <v>71.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -657,14 +657,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
         <v>41428</v>
       </c>
       <c r="D5" s="13">
         <f>VALUE(Hoja2!B5)*100</f>
-        <v>68.600000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -672,14 +672,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>36812</v>
       </c>
       <c r="D6" s="13">
         <f>VALUE(Hoja2!B6)*100</f>
-        <v>68.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -687,14 +687,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>32102</v>
       </c>
       <c r="D7" s="13">
         <f>VALUE(Hoja2!B7)*100</f>
-        <v>67.010000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -702,14 +702,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>29638</v>
       </c>
       <c r="D8" s="13">
         <f>VALUE(Hoja2!B8)*100</f>
-        <v>63.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -717,14 +717,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>26149</v>
       </c>
       <c r="D9" s="13">
         <f>VALUE(Hoja2!B9)*100</f>
-        <v>61.339999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -732,14 +732,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>19676</v>
       </c>
       <c r="D10" s="13">
         <f>VALUE(Hoja2!B10)*100</f>
-        <v>67.190000000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -747,14 +747,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>19211</v>
       </c>
       <c r="D11" s="13">
         <f>VALUE(Hoja2!B11)*100</f>
-        <v>66.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -762,14 +762,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>18864</v>
       </c>
       <c r="D12" s="13">
         <f>VALUE(Hoja2!B12)*100</f>
-        <v>63.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -777,14 +777,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4">
         <v>15365</v>
       </c>
       <c r="D13" s="13">
         <f>VALUE(Hoja2!B13)*100</f>
-        <v>63.190000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -792,14 +792,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>14531</v>
       </c>
       <c r="D14" s="13">
         <f>VALUE(Hoja2!B14)*100</f>
-        <v>62.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -807,14 +807,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>14423</v>
       </c>
       <c r="D15" s="13">
         <f>VALUE(Hoja2!B15)*100</f>
-        <v>60.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -822,14 +822,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>13251</v>
       </c>
       <c r="D16" s="13">
         <f>VALUE(Hoja2!B16)*100</f>
-        <v>62.739999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -837,14 +837,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4">
         <v>12254</v>
       </c>
       <c r="D17" s="13">
         <f>VALUE(Hoja2!B17)*100</f>
-        <v>67.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -852,14 +852,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4">
         <v>10730</v>
       </c>
       <c r="D18" s="13">
         <f>VALUE(Hoja2!B18)*100</f>
-        <v>68.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -867,14 +867,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <v>9754</v>
       </c>
       <c r="D19" s="13">
         <f>VALUE(Hoja2!B19)*100</f>
-        <v>64.649999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -882,14 +882,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4">
         <v>8641</v>
       </c>
       <c r="D20" s="13">
         <f>VALUE(Hoja2!B20)*100</f>
-        <v>61.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,14 +897,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4">
         <v>8182</v>
       </c>
       <c r="D21" s="13">
         <f>VALUE(Hoja2!B21)*100</f>
-        <v>70.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -912,14 +912,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4">
         <v>8000</v>
       </c>
       <c r="D22" s="13">
         <f>VALUE(Hoja2!B22)*100</f>
-        <v>63.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,14 +927,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4">
         <v>7918</v>
       </c>
       <c r="D23" s="13">
         <f>VALUE(Hoja2!B23)*100</f>
-        <v>69.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -942,14 +942,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4">
         <v>7565</v>
       </c>
       <c r="D24" s="13">
         <f>VALUE(Hoja2!B24)*100</f>
-        <v>63.839999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -957,14 +957,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4">
         <v>7456</v>
       </c>
       <c r="D25" s="13">
         <f>VALUE(Hoja2!B25)*100</f>
-        <v>63.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -972,14 +972,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4">
         <v>3780</v>
       </c>
       <c r="D26" s="13">
         <f>VALUE(Hoja2!B26)*100</f>
-        <v>65.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -987,14 +987,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4">
         <v>3329</v>
       </c>
       <c r="D27" s="13">
         <f>VALUE(Hoja2!B27)*100</f>
-        <v>64.88000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1002,27 +1002,27 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="8">
         <v>1050</v>
       </c>
       <c r="D28" s="13">
         <f>VALUE(Hoja2!B28)*100</f>
-        <v>49.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11">
         <v>812080</v>
       </c>
       <c r="D29" s="13">
         <f>VALUE(Hoja2!B29)*100</f>
-        <v>68.83</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1035,150 +1035,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31B8625-3D91-47E1-840D-82AB135C3DE2}">
   <dimension ref="B2:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
-        <v>0.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>0.70789999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>0.71220000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>0.68600000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>0.68920000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>0.67010000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>0.63319999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>0.61339999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>0.67190000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
-        <v>0.66969999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>0.63390000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <v>0.63190000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>0.62790000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>0.60360000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>0.62739999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>0.67249999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>0.68330000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>0.64649999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>0.61560000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>0.70879999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>0.6331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>0.69810000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
-        <v>0.63839999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
-        <v>0.63490000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
-        <v>0.65780000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>0.64880000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
-        <v>0.49280000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>0.68830000000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dpto politico.xlsx
+++ b/dpto politico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc-11\Desktop\CAPUA PROYECTOS\PYTHON\elecciones 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01DDB14-CEF3-4514-96DF-CB2FBD8A156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D593DF-2BC6-4479-8C20-95C8E966A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -253,11 +253,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,9 +316,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,11 +334,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,13 +628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -617,9 +665,9 @@
       <c r="C2" s="4">
         <v>257014</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <f>VALUE(Hoja2!B2)*100</f>
-        <v>0</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -632,9 +680,9 @@
       <c r="C3" s="4">
         <v>133361</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <f>VALUE(Hoja2!B3)*100</f>
-        <v>0</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -647,9 +695,9 @@
       <c r="C4" s="4">
         <v>51596</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <f>VALUE(Hoja2!B4)*100</f>
-        <v>0</v>
+        <v>14.790000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -662,9 +710,9 @@
       <c r="C5" s="4">
         <v>41428</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f>VALUE(Hoja2!B5)*100</f>
-        <v>0</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -677,9 +725,9 @@
       <c r="C6" s="4">
         <v>36812</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f>VALUE(Hoja2!B6)*100</f>
-        <v>0</v>
+        <v>12.629999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -692,9 +740,9 @@
       <c r="C7" s="4">
         <v>32102</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f>VALUE(Hoja2!B7)*100</f>
-        <v>0</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -707,9 +755,9 @@
       <c r="C8" s="4">
         <v>29638</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <f>VALUE(Hoja2!B8)*100</f>
-        <v>0</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -722,9 +770,9 @@
       <c r="C9" s="4">
         <v>26149</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f>VALUE(Hoja2!B9)*100</f>
-        <v>0</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -737,9 +785,9 @@
       <c r="C10" s="4">
         <v>19676</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <f>VALUE(Hoja2!B10)*100</f>
-        <v>0</v>
+        <v>12.989999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -752,9 +800,9 @@
       <c r="C11" s="4">
         <v>19211</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <f>VALUE(Hoja2!B11)*100</f>
-        <v>0</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -767,9 +815,9 @@
       <c r="C12" s="4">
         <v>18864</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f>VALUE(Hoja2!B12)*100</f>
-        <v>0</v>
+        <v>14.510000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -782,9 +830,9 @@
       <c r="C13" s="4">
         <v>15365</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f>VALUE(Hoja2!B13)*100</f>
-        <v>0</v>
+        <v>14.799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -797,9 +845,9 @@
       <c r="C14" s="4">
         <v>14531</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <f>VALUE(Hoja2!B14)*100</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -812,9 +860,9 @@
       <c r="C15" s="4">
         <v>14423</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f>VALUE(Hoja2!B15)*100</f>
-        <v>0</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -827,9 +875,9 @@
       <c r="C16" s="4">
         <v>13251</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <f>VALUE(Hoja2!B16)*100</f>
-        <v>0</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -842,9 +890,9 @@
       <c r="C17" s="4">
         <v>12254</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <f>VALUE(Hoja2!B17)*100</f>
-        <v>0</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -857,9 +905,9 @@
       <c r="C18" s="4">
         <v>10730</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <f>VALUE(Hoja2!B18)*100</f>
-        <v>0</v>
+        <v>12.659999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -872,9 +920,9 @@
       <c r="C19" s="4">
         <v>9754</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <f>VALUE(Hoja2!B19)*100</f>
-        <v>0</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,9 +935,9 @@
       <c r="C20" s="4">
         <v>8641</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <f>VALUE(Hoja2!B20)*100</f>
-        <v>0</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,9 +950,9 @@
       <c r="C21" s="4">
         <v>8182</v>
       </c>
-      <c r="D21" s="13">
-        <f>VALUE(Hoja2!B21)*100</f>
-        <v>0</v>
+      <c r="D21" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -917,9 +965,9 @@
       <c r="C22" s="4">
         <v>8000</v>
       </c>
-      <c r="D22" s="13">
-        <f>VALUE(Hoja2!B22)*100</f>
-        <v>0</v>
+      <c r="D22" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -932,9 +980,9 @@
       <c r="C23" s="4">
         <v>7918</v>
       </c>
-      <c r="D23" s="13">
-        <f>VALUE(Hoja2!B23)*100</f>
-        <v>0</v>
+      <c r="D23" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,9 +995,9 @@
       <c r="C24" s="4">
         <v>7565</v>
       </c>
-      <c r="D24" s="13">
-        <f>VALUE(Hoja2!B24)*100</f>
-        <v>0</v>
+      <c r="D24" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,9 +1010,9 @@
       <c r="C25" s="4">
         <v>7456</v>
       </c>
-      <c r="D25" s="13">
-        <f>VALUE(Hoja2!B25)*100</f>
-        <v>0</v>
+      <c r="D25" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,9 +1025,9 @@
       <c r="C26" s="4">
         <v>3780</v>
       </c>
-      <c r="D26" s="13">
-        <f>VALUE(Hoja2!B26)*100</f>
-        <v>0</v>
+      <c r="D26" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -992,37 +1040,37 @@
       <c r="C27" s="4">
         <v>3329</v>
       </c>
-      <c r="D27" s="13">
-        <f>VALUE(Hoja2!B27)*100</f>
-        <v>0</v>
+      <c r="D27" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>1050</v>
       </c>
-      <c r="D28" s="13">
-        <f>VALUE(Hoja2!B28)*100</f>
-        <v>0</v>
+      <c r="D28" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>812080</v>
       </c>
-      <c r="D29" s="13">
-        <f>VALUE(Hoja2!B29)*100</f>
-        <v>0</v>
+      <c r="D29" s="11" t="e">
+        <f>VALUE(Hoja2!#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -1033,152 +1081,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31B8625-3D91-47E1-840D-82AB135C3DE2}">
-  <dimension ref="B2:B29"/>
+  <dimension ref="B1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
-        <v>0</v>
+    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13">
+        <v>0.1479</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <v>0.1263</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>0.14949999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
+        <v>0.12529999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>0.15670000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <v>0.12989999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
+        <v>0.1381</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
+        <v>0.14510000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13">
+        <v>0.1116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13">
+        <v>0.1704</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
+        <v>0.1573</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
+        <v>0.1459</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13">
+        <v>0.11940000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
+        <v>0.1946</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
+        <v>0.14369999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
+        <v>0.15690000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
+        <v>0.1182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
+        <v>6.4399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13">
+        <v>0.16109999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14">
+        <v>0.1226</v>
       </c>
     </row>
   </sheetData>
